--- a/STM32（四）通信，看门狗.xlsx
+++ b/STM32（四）通信，看门狗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通信" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>STM32</t>
   </si>
@@ -242,7 +242,7 @@
     <t>D:\STM32\songkewei\光盘资料\普中STM32-PZ6806L--PZ6806D开发板资料\普中STM32-PZ6806L开发板资料-A\4-实验程序\库函数版</t>
   </si>
   <si>
-    <t>第二十二讲：独立看门狗</t>
+    <t>第二十二讲：独立看门狗（IWDG）</t>
   </si>
   <si>
     <t>引言：</t>
@@ -302,7 +302,76 @@
     <t>6号：状态寄存器SR，存放独立看门狗的状态位，RVU，PVU</t>
   </si>
   <si>
-    <t>该看26.2了</t>
+    <t>独立看门狗（IWDG）的配置步骤：</t>
+  </si>
+  <si>
+    <t>⑴开启5号寄存器，写入0x5555</t>
+  </si>
+  <si>
+    <t>⑵设置预分频系数和重载值</t>
+  </si>
+  <si>
+    <t>⑶初始化喂下狗，5号寄存器写入0xAAAA</t>
+  </si>
+  <si>
+    <t>⑷开启狗，5号寄存器写入0xCCCC</t>
+  </si>
+  <si>
+    <t>注意：</t>
+  </si>
+  <si>
+    <t>独立开门狗一旦开启就无法关闭，除非重启，重启后不要给5号写入0xCCCC</t>
+  </si>
+  <si>
+    <t>第二十三讲：窗口看门狗（WWDG）</t>
+  </si>
+  <si>
+    <t>WWDG介绍：</t>
+  </si>
+  <si>
+    <t>窗口看门狗WWDG是一个7位递减计数器，当递减到固定值0x40时还不喂狗就会产生复位，这个值叫窗口下限，</t>
+  </si>
+  <si>
+    <t>但是在递减到某个值之前喂狗的话也会产生复位，这个值是用户设定的，叫窗口上限。</t>
+  </si>
+  <si>
+    <t>因为看门狗计数器必须在上限和下限之间的窗口期喂狗才行，所以叫窗口看门狗</t>
+  </si>
+  <si>
+    <t>1号：窗口看门狗的是时钟源，来自PCLK1，是挂接APB1总线上的，所以使用之前得打开APB1总线时钟</t>
+  </si>
+  <si>
+    <t>2号：预分频器，两个比特，所以分频因子又0，1，2，3</t>
+  </si>
+  <si>
+    <t>3号：计数器，7位的递减计数器，</t>
+  </si>
+  <si>
+    <t>4号：看门狗配置寄存器，设置上窗口的值</t>
+  </si>
+  <si>
+    <t>5号：系统复位信号</t>
+  </si>
+  <si>
+    <t>窗口看门狗（WWDG）的的配置步骤：</t>
+  </si>
+  <si>
+    <t>⑴使能时钟</t>
+  </si>
+  <si>
+    <t>⑵设置值和分频系数</t>
+  </si>
+  <si>
+    <t>⑶开启中断允许位，设置中断分组和优先级</t>
+  </si>
+  <si>
+    <t>⑷设置计数器初始值，开启看门狗</t>
+  </si>
+  <si>
+    <t>⑸写中断服务函数</t>
+  </si>
+  <si>
+    <t>该看输入捕获了</t>
   </si>
   <si>
     <t>1号：功能引脚</t>
@@ -433,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -489,8 +558,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -504,76 +587,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -588,7 +604,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -596,15 +620,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,6 +666,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +688,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +729,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,79 +855,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +879,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,37 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,23 +920,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,23 +959,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +984,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -953,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,16 +1034,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -983,115 +1052,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,7 +1327,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>133985</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
@@ -1270,7 +1339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="782320" y="2802890"/>
-          <a:ext cx="503555" cy="389890"/>
+          <a:ext cx="466090" cy="389890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,7 +1388,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
+      <xdr:colOff>125730</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
@@ -1336,8 +1405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1249680" y="2758440"/>
-          <a:ext cx="739775" cy="535940"/>
+          <a:off x="1240155" y="2758440"/>
+          <a:ext cx="749300" cy="535940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3099,6 +3168,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="8001000"/>
+          <a:ext cx="7477125" cy="4181475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3506,7 +3617,7 @@
   <sheetPr/>
   <dimension ref="A1:AE150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A138" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
@@ -3916,10 +4027,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="AE65" sqref="AE65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4097,39 +4208,162 @@
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="8"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:1">
-      <c r="A48" s="5" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="13"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="138" s="5" customFormat="1" spans="1:1">
+      <c r="A138" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:1">
-      <c r="A49" s="5" t="s">
+    <row r="139" s="5" customFormat="1" spans="1:1">
+      <c r="A139" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1"/>
-    <row r="51" s="5" customFormat="1" spans="1:1">
-      <c r="A51" s="5" t="s">
+    <row r="140" s="5" customFormat="1"/>
+    <row r="141" s="5" customFormat="1" spans="1:1">
+      <c r="A141" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" spans="1:1">
-      <c r="A52" s="6" t="s">
+    <row r="142" s="6" customFormat="1" spans="1:1">
+      <c r="A142" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" spans="1:1">
-      <c r="A53" s="6" t="s">
+    <row r="143" s="6" customFormat="1" spans="1:1">
+      <c r="A143" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4146,8 +4380,8 @@
   <sheetPr/>
   <dimension ref="A1:AE152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4259,92 +4493,92 @@
     </row>
     <row r="48" s="2" customFormat="1" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B48" s="11"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" s="2" customFormat="1" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" s="2" customFormat="1" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" s="2" customFormat="1" spans="3:3">
       <c r="C55" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" s="2" customFormat="1" spans="4:4">
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" s="2" customFormat="1" spans="4:4">
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" s="2" customFormat="1" spans="2:3">
       <c r="B58" s="11"/>
       <c r="C58" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" s="2" customFormat="1" spans="2:4">
       <c r="B59" s="11"/>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" s="2" customFormat="1" spans="2:4">
       <c r="B60" s="11"/>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" s="2" customFormat="1" spans="2:2">
       <c r="B61" s="11" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" s="2" customFormat="1" spans="2:3">
       <c r="B62" s="11"/>
       <c r="C62" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" s="3" customFormat="1" spans="2:2">
       <c r="B64" s="3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1"/>
@@ -4358,37 +4592,37 @@
     <row r="73" s="3" customFormat="1"/>
     <row r="74" s="3" customFormat="1" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" s="3" customFormat="1" spans="3:3">
       <c r="C75" s="3" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" s="3" customFormat="1" spans="3:3">
       <c r="C76" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" spans="3:3">
       <c r="C77" s="3" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" s="4" customFormat="1" spans="3:3">
       <c r="C78" s="4" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" s="4" customFormat="1" spans="3:3">
       <c r="C79" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" s="4" customFormat="1" spans="3:3">
       <c r="C80" s="4" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1"/>
@@ -4397,7 +4631,7 @@
     <row r="84" s="3" customFormat="1"/>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" s="5" customFormat="1"/>

--- a/STM32（四）通信，看门狗.xlsx
+++ b/STM32（四）通信，看门狗.xlsx
@@ -371,7 +371,7 @@
     <t>⑸写中断服务函数</t>
   </si>
   <si>
-    <t>该看输入捕获了</t>
+    <t>电容触摸就不学了，原理懂，感觉没啥可学的</t>
   </si>
   <si>
     <t>1号：功能引脚</t>
@@ -504,8 +504,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -558,8 +558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,16 +573,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,33 +582,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,16 +595,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,9 +620,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,8 +687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,30 +697,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +729,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,67 +885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,60 +907,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -914,15 +914,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -937,6 +928,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,43 +994,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,10 +1022,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,133 +1034,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4029,8 +4029,8 @@
   <sheetPr/>
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="AE65" sqref="AE65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4247,8 +4247,6 @@
         <v>101</v>
       </c>
       <c r="X40" s="8"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
       <c r="AA40" s="13"/>
     </row>
     <row r="41" spans="2:2">

--- a/STM32（四）通信，看门狗.xlsx
+++ b/STM32（四）通信，看门狗.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="通信" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>⑸⑹⑺⑻⑼⑽</t>
   </si>
   <si>
-    <t>第二十一讲：独立看门狗</t>
+    <t>第二十一讲：通信</t>
   </si>
   <si>
     <t>⑵</t>
@@ -502,10 +502,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -560,14 +560,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,40 +582,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,18 +595,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -656,26 +625,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,6 +651,45 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +729,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,37 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,13 +831,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,103 +897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,36 +918,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,22 +951,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,8 +974,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +994,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,7 +1025,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,133 +1034,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3617,8 +3617,8 @@
   <sheetPr/>
   <dimension ref="A1:AE150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
@@ -4029,7 +4029,7 @@
   <sheetPr/>
   <dimension ref="A1:AE143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -4378,8 +4378,8 @@
   <sheetPr/>
   <dimension ref="A1:AE152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5"/>
